--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4078"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4078" sqref="C4078"/>
+    <sheetView tabSelected="1" topLeftCell="A4050" workbookViewId="0">
+      <selection activeCell="C4071" sqref="C4071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45040,6 +45040,9 @@
       <c r="B4060" s="2">
         <v>45698</v>
       </c>
+      <c r="C4060">
+        <v>0</v>
+      </c>
     </row>
     <row r="4061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4061" s="1">
@@ -45048,6 +45051,9 @@
       <c r="B4061" s="2">
         <v>45699</v>
       </c>
+      <c r="C4061">
+        <v>0</v>
+      </c>
     </row>
     <row r="4062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4062" s="1">
@@ -45056,6 +45062,9 @@
       <c r="B4062" s="2">
         <v>45700</v>
       </c>
+      <c r="C4062">
+        <v>0</v>
+      </c>
     </row>
     <row r="4063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4063" s="1">
@@ -45064,6 +45073,9 @@
       <c r="B4063" s="2">
         <v>45701</v>
       </c>
+      <c r="C4063">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4064" s="1">
@@ -45072,56 +45084,77 @@
       <c r="B4064" s="2">
         <v>45702</v>
       </c>
-    </row>
-    <row r="4065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4065" s="1">
         <v>4063</v>
       </c>
       <c r="B4065" s="2">
         <v>45703</v>
       </c>
-    </row>
-    <row r="4066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4066" s="1">
         <v>4064</v>
       </c>
       <c r="B4066" s="2">
         <v>45704</v>
       </c>
-    </row>
-    <row r="4067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4067" s="1">
         <v>4065</v>
       </c>
       <c r="B4067" s="2">
         <v>45705</v>
       </c>
-    </row>
-    <row r="4068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4067">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4068" s="1">
         <v>4066</v>
       </c>
       <c r="B4068" s="2">
         <v>45706</v>
       </c>
-    </row>
-    <row r="4069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4069" s="1">
         <v>4067</v>
       </c>
       <c r="B4069" s="2">
         <v>45707</v>
       </c>
-    </row>
-    <row r="4070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4070" s="1">
         <v>4068</v>
       </c>
       <c r="B4070" s="2">
         <v>45708</v>
       </c>
-    </row>
-    <row r="4071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4070">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4071" s="1">
         <v>4069</v>
       </c>
@@ -45129,7 +45162,7 @@
         <v>45709</v>
       </c>
     </row>
-    <row r="4072" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4072" s="1">
         <v>4070</v>
       </c>
@@ -45137,7 +45170,7 @@
         <v>45710</v>
       </c>
     </row>
-    <row r="4073" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4073" s="1">
         <v>4071</v>
       </c>
@@ -45145,7 +45178,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="4074" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4074" s="1">
         <v>4072</v>
       </c>
@@ -45153,7 +45186,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="4075" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4075" s="1">
         <v>4073</v>
       </c>
@@ -45161,7 +45194,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="4076" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4076" s="1">
         <v>4074</v>
       </c>
@@ -45169,7 +45202,7 @@
         <v>45714</v>
       </c>
     </row>
-    <row r="4077" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4077" s="1">
         <v>4075</v>
       </c>
@@ -45177,7 +45210,7 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="4078" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4078" s="1">
         <v>4076</v>
       </c>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4078"/>
+  <dimension ref="A1:C4110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4050" workbookViewId="0">
-      <selection activeCell="C4071" sqref="C4071"/>
+    <sheetView tabSelected="1" topLeftCell="A4035" workbookViewId="0">
+      <selection activeCell="C4109" sqref="C4109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45161,6 +45161,9 @@
       <c r="B4071" s="2">
         <v>45709</v>
       </c>
+      <c r="C4071">
+        <v>0</v>
+      </c>
     </row>
     <row r="4072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4072" s="1">
@@ -45169,6 +45172,9 @@
       <c r="B4072" s="2">
         <v>45710</v>
       </c>
+      <c r="C4072">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4073" s="1">
@@ -45177,6 +45183,9 @@
       <c r="B4073" s="2">
         <v>45711</v>
       </c>
+      <c r="C4073">
+        <v>10</v>
+      </c>
     </row>
     <row r="4074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4074" s="1">
@@ -45185,6 +45194,9 @@
       <c r="B4074" s="2">
         <v>45712</v>
       </c>
+      <c r="C4074">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4075" s="1">
@@ -45193,6 +45205,9 @@
       <c r="B4075" s="2">
         <v>45713</v>
       </c>
+      <c r="C4075">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="4076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4076" s="1">
@@ -45201,6 +45216,9 @@
       <c r="B4076" s="2">
         <v>45714</v>
       </c>
+      <c r="C4076">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="4077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4077" s="1">
@@ -45209,6 +45227,9 @@
       <c r="B4077" s="2">
         <v>45715</v>
       </c>
+      <c r="C4077">
+        <v>0</v>
+      </c>
     </row>
     <row r="4078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4078" s="1">
@@ -45217,6 +45238,261 @@
       <c r="B4078" s="2">
         <v>45716</v>
       </c>
+      <c r="C4078">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4079" s="1">
+        <v>4077</v>
+      </c>
+      <c r="B4079" s="2">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4080" s="1">
+        <v>4078</v>
+      </c>
+      <c r="B4080" s="2">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4081" s="1">
+        <v>4079</v>
+      </c>
+      <c r="B4081" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4082" s="1">
+        <v>4080</v>
+      </c>
+      <c r="B4082" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4083" s="1">
+        <v>4081</v>
+      </c>
+      <c r="B4083" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4084" s="1">
+        <v>4082</v>
+      </c>
+      <c r="B4084" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4085" s="1">
+        <v>4083</v>
+      </c>
+      <c r="B4085" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4086" s="1">
+        <v>4084</v>
+      </c>
+      <c r="B4086" s="2">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4087" s="1">
+        <v>4085</v>
+      </c>
+      <c r="B4087" s="2">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4088" s="1">
+        <v>4086</v>
+      </c>
+      <c r="B4088" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4089" s="1">
+        <v>4087</v>
+      </c>
+      <c r="B4089" s="2">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4090" s="1">
+        <v>4088</v>
+      </c>
+      <c r="B4090" s="2">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4091" s="1">
+        <v>4089</v>
+      </c>
+      <c r="B4091" s="2">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4092" s="1">
+        <v>4090</v>
+      </c>
+      <c r="B4092" s="2">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4093" s="1">
+        <v>4091</v>
+      </c>
+      <c r="B4093" s="2">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4094" s="1">
+        <v>4092</v>
+      </c>
+      <c r="B4094" s="2">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4095" s="1">
+        <v>4093</v>
+      </c>
+      <c r="B4095" s="2">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4096" s="1">
+        <v>4094</v>
+      </c>
+      <c r="B4096" s="2">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4097" s="1">
+        <v>4095</v>
+      </c>
+      <c r="B4097" s="2">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4098" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B4098" s="2">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4099" s="1">
+        <v>4097</v>
+      </c>
+      <c r="B4099" s="2">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4100" s="1">
+        <v>4098</v>
+      </c>
+      <c r="B4100" s="2">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4101" s="1">
+        <v>4099</v>
+      </c>
+      <c r="B4101" s="2">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4102" s="1">
+        <v>4100</v>
+      </c>
+      <c r="B4102" s="2">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4103" s="1">
+        <v>4101</v>
+      </c>
+      <c r="B4103" s="2">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4104" s="1">
+        <v>4102</v>
+      </c>
+      <c r="B4104" s="2">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4105" s="1">
+        <v>4103</v>
+      </c>
+      <c r="B4105" s="2">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4106" s="1">
+        <v>4104</v>
+      </c>
+      <c r="B4106" s="2">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4107" s="1">
+        <v>4105</v>
+      </c>
+      <c r="B4107" s="2">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4108" s="1">
+        <v>4106</v>
+      </c>
+      <c r="B4108" s="2">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4109" s="1">
+        <v>4107</v>
+      </c>
+      <c r="B4109" s="2">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4110" s="1"/>
+      <c r="B4110" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4035" workbookViewId="0">
-      <selection activeCell="C4109" sqref="C4109"/>
+    <sheetView tabSelected="1" topLeftCell="A4065" workbookViewId="0">
+      <selection activeCell="D4081" sqref="D4081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45249,6 +45249,9 @@
       <c r="B4079" s="2">
         <v>45717</v>
       </c>
+      <c r="C4079">
+        <v>0</v>
+      </c>
     </row>
     <row r="4080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4080" s="1">
@@ -45257,48 +45260,66 @@
       <c r="B4080" s="2">
         <v>45718</v>
       </c>
-    </row>
-    <row r="4081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4081" s="1">
         <v>4079</v>
       </c>
       <c r="B4081" s="2">
         <v>45719</v>
       </c>
-    </row>
-    <row r="4082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4082" s="1">
         <v>4080</v>
       </c>
       <c r="B4082" s="2">
         <v>45720</v>
       </c>
-    </row>
-    <row r="4083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4083" s="1">
         <v>4081</v>
       </c>
       <c r="B4083" s="2">
         <v>45721</v>
       </c>
-    </row>
-    <row r="4084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4084" s="1">
         <v>4082</v>
       </c>
       <c r="B4084" s="2">
         <v>45722</v>
       </c>
-    </row>
-    <row r="4085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4084">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4085" s="1">
         <v>4083</v>
       </c>
       <c r="B4085" s="2">
         <v>45723</v>
       </c>
-    </row>
-    <row r="4086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4085">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4086" s="1">
         <v>4084</v>
       </c>
@@ -45306,7 +45327,7 @@
         <v>45724</v>
       </c>
     </row>
-    <row r="4087" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4087" s="1">
         <v>4085</v>
       </c>
@@ -45314,7 +45335,7 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="4088" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4088" s="1">
         <v>4086</v>
       </c>
@@ -45322,7 +45343,7 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="4089" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4089" s="1">
         <v>4087</v>
       </c>
@@ -45330,7 +45351,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="4090" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4090" s="1">
         <v>4088</v>
       </c>
@@ -45338,7 +45359,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="4091" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4091" s="1">
         <v>4089</v>
       </c>
@@ -45346,7 +45367,7 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="4092" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4092" s="1">
         <v>4090</v>
       </c>
@@ -45354,7 +45375,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="4093" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4093" s="1">
         <v>4091</v>
       </c>
@@ -45362,7 +45383,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="4094" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4094" s="1">
         <v>4092</v>
       </c>
@@ -45370,7 +45391,7 @@
         <v>45732</v>
       </c>
     </row>
-    <row r="4095" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4095" s="1">
         <v>4093</v>
       </c>
@@ -45378,7 +45399,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="4096" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4096" s="1">
         <v>4094</v>
       </c>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4065" workbookViewId="0">
-      <selection activeCell="D4081" sqref="D4081"/>
+    <sheetView tabSelected="1" topLeftCell="A4068" workbookViewId="0">
+      <selection activeCell="D4089" sqref="D4089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45326,6 +45326,9 @@
       <c r="B4086" s="2">
         <v>45724</v>
       </c>
+      <c r="C4086">
+        <v>0</v>
+      </c>
     </row>
     <row r="4087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4087" s="1">
@@ -45334,6 +45337,9 @@
       <c r="B4087" s="2">
         <v>45725</v>
       </c>
+      <c r="C4087">
+        <v>5</v>
+      </c>
     </row>
     <row r="4088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4088" s="1">
@@ -45342,6 +45348,9 @@
       <c r="B4088" s="2">
         <v>45726</v>
       </c>
+      <c r="C4088">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="4089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4089" s="1">
@@ -45350,6 +45359,9 @@
       <c r="B4089" s="2">
         <v>45727</v>
       </c>
+      <c r="C4089">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4090" s="1">
@@ -45358,6 +45370,9 @@
       <c r="B4090" s="2">
         <v>45728</v>
       </c>
+      <c r="C4090">
+        <v>0</v>
+      </c>
     </row>
     <row r="4091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4091" s="1">
@@ -45365,6 +45380,9 @@
       </c>
       <c r="B4091" s="2">
         <v>45729</v>
+      </c>
+      <c r="C4091">
+        <v>13.2</v>
       </c>
     </row>
     <row r="4092" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4068" workbookViewId="0">
-      <selection activeCell="D4089" sqref="D4089"/>
+    <sheetView tabSelected="1" topLeftCell="A4077" workbookViewId="0">
+      <selection activeCell="C4095" sqref="C4095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45392,6 +45392,9 @@
       <c r="B4092" s="2">
         <v>45730</v>
       </c>
+      <c r="C4092">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="4093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4093" s="1">
@@ -45400,6 +45403,9 @@
       <c r="B4093" s="2">
         <v>45731</v>
       </c>
+      <c r="C4093">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="4094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4094" s="1">
@@ -45407,6 +45413,9 @@
       </c>
       <c r="B4094" s="2">
         <v>45732</v>
+      </c>
+      <c r="C4094">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4095" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -88,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4077" workbookViewId="0">
-      <selection activeCell="C4095" sqref="C4095"/>
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+      <selection activeCell="D923" sqref="D923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +403,7 @@
       <c r="B2" s="2">
         <v>41640</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -413,7 +414,7 @@
       <c r="B3" s="2">
         <v>41641</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -424,7 +425,7 @@
       <c r="B4" s="2">
         <v>41642</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -435,8 +436,8 @@
       <c r="B5" s="2">
         <v>41643</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" s="3">
+        <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,7 +447,7 @@
       <c r="B6" s="2">
         <v>41644</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -457,7 +458,7 @@
       <c r="B7" s="2">
         <v>41645</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -468,9 +469,6 @@
       <c r="B8" s="2">
         <v>41646</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -479,7 +477,7 @@
       <c r="B9" s="2">
         <v>41647</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -490,8 +488,8 @@
       <c r="B10" s="2">
         <v>41648</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +499,7 @@
       <c r="B11" s="2">
         <v>41649</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -512,7 +510,7 @@
       <c r="B12" s="2">
         <v>41650</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -523,7 +521,7 @@
       <c r="B13" s="2">
         <v>41651</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -534,7 +532,7 @@
       <c r="B14" s="2">
         <v>41652</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -545,7 +543,7 @@
       <c r="B15" s="2">
         <v>41653</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -556,7 +554,7 @@
       <c r="B16" s="2">
         <v>41654</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -567,8 +565,8 @@
       <c r="B17" s="2">
         <v>41655</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" s="3">
+        <v>4.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,8 +576,8 @@
       <c r="B18" s="2">
         <v>41656</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="3">
+        <v>14.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,8 +587,8 @@
       <c r="B19" s="2">
         <v>41657</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" s="3">
+        <v>10.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,8 +598,8 @@
       <c r="B20" s="2">
         <v>41658</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" s="3">
+        <v>10.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,8 +609,8 @@
       <c r="B21" s="2">
         <v>41659</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,7 +620,7 @@
       <c r="B22" s="2">
         <v>41660</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -633,8 +631,8 @@
       <c r="B23" s="2">
         <v>41661</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7123,8 +7121,8 @@
       <c r="B613" s="2">
         <v>42251</v>
       </c>
-      <c r="C613">
-        <v>0</v>
+      <c r="C613" s="3">
+        <v>28.5</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -7168,7 +7166,7 @@
         <v>42255</v>
       </c>
       <c r="C617">
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -7201,7 +7199,7 @@
         <v>42258</v>
       </c>
       <c r="C620">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -7376,8 +7374,8 @@
       <c r="B636" s="2">
         <v>42274</v>
       </c>
-      <c r="C636">
-        <v>0</v>
+      <c r="C636" s="3">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -7387,8 +7385,8 @@
       <c r="B637" s="2">
         <v>42275</v>
       </c>
-      <c r="C637">
-        <v>0</v>
+      <c r="C637" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -7398,8 +7396,8 @@
       <c r="B638" s="2">
         <v>42276</v>
       </c>
-      <c r="C638">
-        <v>0</v>
+      <c r="C638" s="3">
+        <v>24.8</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -7409,8 +7407,8 @@
       <c r="B639" s="2">
         <v>42277</v>
       </c>
-      <c r="C639">
-        <v>0</v>
+      <c r="C639" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -7420,8 +7418,8 @@
       <c r="B640" s="2">
         <v>42278</v>
       </c>
-      <c r="C640">
-        <v>0</v>
+      <c r="C640" s="3">
+        <v>1.4</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -7431,8 +7429,8 @@
       <c r="B641" s="2">
         <v>42279</v>
       </c>
-      <c r="C641">
-        <v>0</v>
+      <c r="C641" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -7454,7 +7452,7 @@
         <v>42281</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -7465,7 +7463,7 @@
         <v>42282</v>
       </c>
       <c r="C644">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -7487,7 +7485,7 @@
         <v>42284</v>
       </c>
       <c r="C646">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -7552,8 +7550,8 @@
       <c r="B652" s="2">
         <v>42290</v>
       </c>
-      <c r="C652">
-        <v>0</v>
+      <c r="C652" s="3">
+        <v>14.6</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -7563,8 +7561,8 @@
       <c r="B653" s="2">
         <v>42291</v>
       </c>
-      <c r="C653">
-        <v>0</v>
+      <c r="C653" s="3">
+        <v>2.8</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -7574,8 +7572,8 @@
       <c r="B654" s="2">
         <v>42292</v>
       </c>
-      <c r="C654">
-        <v>0</v>
+      <c r="C654" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -7630,7 +7628,7 @@
         <v>42297</v>
       </c>
       <c r="C659">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -7641,7 +7639,7 @@
         <v>42298</v>
       </c>
       <c r="C660">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -7695,8 +7693,8 @@
       <c r="B665" s="2">
         <v>42303</v>
       </c>
-      <c r="C665">
-        <v>0</v>
+      <c r="C665" s="3">
+        <v>1.2</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -7773,7 +7771,7 @@
         <v>42310</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -7850,7 +7848,7 @@
         <v>42317</v>
       </c>
       <c r="C679">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -7992,8 +7990,8 @@
       <c r="B692" s="2">
         <v>42330</v>
       </c>
-      <c r="C692">
-        <v>0</v>
+      <c r="C692" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -8003,8 +8001,8 @@
       <c r="B693" s="2">
         <v>42331</v>
       </c>
-      <c r="C693">
-        <v>0</v>
+      <c r="C693" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -8014,7 +8012,7 @@
       <c r="B694" s="2">
         <v>42332</v>
       </c>
-      <c r="C694">
+      <c r="C694" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8025,8 +8023,8 @@
       <c r="B695" s="2">
         <v>42333</v>
       </c>
-      <c r="C695">
-        <v>0</v>
+      <c r="C695" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -8048,7 +8046,7 @@
         <v>42335</v>
       </c>
       <c r="C697">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -8477,7 +8475,7 @@
         <v>42374</v>
       </c>
       <c r="C736">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -8554,7 +8552,7 @@
         <v>42381</v>
       </c>
       <c r="C743">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -8586,8 +8584,8 @@
       <c r="B746" s="2">
         <v>42384</v>
       </c>
-      <c r="C746">
-        <v>0</v>
+      <c r="C746" s="3">
+        <v>3.6</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -8828,8 +8826,8 @@
       <c r="B768" s="2">
         <v>42406</v>
       </c>
-      <c r="C768">
-        <v>0</v>
+      <c r="C768" s="3">
+        <v>3.2</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -8839,8 +8837,8 @@
       <c r="B769" s="2">
         <v>42407</v>
       </c>
-      <c r="C769">
-        <v>0</v>
+      <c r="C769" s="3">
+        <v>5.8</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -8917,7 +8915,7 @@
         <v>42414</v>
       </c>
       <c r="C776">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
@@ -8950,7 +8948,7 @@
         <v>42417</v>
       </c>
       <c r="C779">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
@@ -9060,7 +9058,7 @@
         <v>42427</v>
       </c>
       <c r="C789">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
@@ -9115,7 +9113,7 @@
         <v>42432</v>
       </c>
       <c r="C794">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
@@ -9181,7 +9179,7 @@
         <v>42438</v>
       </c>
       <c r="C800">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
@@ -9225,7 +9223,7 @@
         <v>42442</v>
       </c>
       <c r="C804">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
@@ -9422,8 +9420,8 @@
       <c r="B822" s="2">
         <v>42460</v>
       </c>
-      <c r="C822">
-        <v>0</v>
+      <c r="C822" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
@@ -9433,8 +9431,8 @@
       <c r="B823" s="2">
         <v>42461</v>
       </c>
-      <c r="C823">
-        <v>0</v>
+      <c r="C823" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
@@ -9444,7 +9442,7 @@
       <c r="B824" s="2">
         <v>42462</v>
       </c>
-      <c r="C824">
+      <c r="C824" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9455,7 +9453,7 @@
       <c r="B825" s="2">
         <v>42463</v>
       </c>
-      <c r="C825">
+      <c r="C825" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9466,8 +9464,8 @@
       <c r="B826" s="2">
         <v>42464</v>
       </c>
-      <c r="C826">
-        <v>0</v>
+      <c r="C826" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
@@ -9477,8 +9475,8 @@
       <c r="B827" s="2">
         <v>42465</v>
       </c>
-      <c r="C827">
-        <v>0</v>
+      <c r="C827" s="3">
+        <v>1.4</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
@@ -9488,7 +9486,7 @@
       <c r="B828" s="2">
         <v>42466</v>
       </c>
-      <c r="C828">
+      <c r="C828" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9499,8 +9497,8 @@
       <c r="B829" s="2">
         <v>42467</v>
       </c>
-      <c r="C829">
-        <v>0</v>
+      <c r="C829" s="3">
+        <v>0.6</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
@@ -9510,8 +9508,8 @@
       <c r="B830" s="2">
         <v>42468</v>
       </c>
-      <c r="C830">
-        <v>29</v>
+      <c r="C830" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
@@ -9555,7 +9553,7 @@
         <v>42472</v>
       </c>
       <c r="C834">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
@@ -9819,7 +9817,7 @@
         <v>42496</v>
       </c>
       <c r="C858">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
@@ -9830,7 +9828,7 @@
         <v>42497</v>
       </c>
       <c r="C859">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
@@ -9885,7 +9883,7 @@
         <v>42502</v>
       </c>
       <c r="C864">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
@@ -9896,7 +9894,7 @@
         <v>42503</v>
       </c>
       <c r="C865">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
@@ -45425,6 +45423,9 @@
       <c r="B4095" s="2">
         <v>45733</v>
       </c>
+      <c r="C4095">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4096" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4096" s="1">
@@ -45433,40 +45434,55 @@
       <c r="B4096" s="2">
         <v>45734</v>
       </c>
-    </row>
-    <row r="4097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4096">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4097" s="1">
         <v>4095</v>
       </c>
       <c r="B4097" s="2">
         <v>45735</v>
       </c>
-    </row>
-    <row r="4098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4097">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4098" s="1">
         <v>4096</v>
       </c>
       <c r="B4098" s="2">
         <v>45736</v>
       </c>
-    </row>
-    <row r="4099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4099" s="1">
         <v>4097</v>
       </c>
       <c r="B4099" s="2">
         <v>45737</v>
       </c>
-    </row>
-    <row r="4100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4099">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4100" s="1">
         <v>4098</v>
       </c>
       <c r="B4100" s="2">
         <v>45738</v>
       </c>
-    </row>
-    <row r="4101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4100">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4101" s="1">
         <v>4099</v>
       </c>
@@ -45474,7 +45490,7 @@
         <v>45739</v>
       </c>
     </row>
-    <row r="4102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4102" s="1">
         <v>4100</v>
       </c>
@@ -45482,7 +45498,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="4103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4103" s="1">
         <v>4101</v>
       </c>
@@ -45490,7 +45506,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="4104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4104" s="1">
         <v>4102</v>
       </c>
@@ -45498,7 +45514,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="4105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4105" s="1">
         <v>4103</v>
       </c>
@@ -45506,7 +45522,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="4106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4106" s="1">
         <v>4104</v>
       </c>
@@ -45514,7 +45530,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="4107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4107" s="1">
         <v>4105</v>
       </c>
@@ -45522,7 +45538,7 @@
         <v>45745</v>
       </c>
     </row>
-    <row r="4108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4108" s="1">
         <v>4106</v>
       </c>
@@ -45530,7 +45546,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="4109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4109" s="1">
         <v>4107</v>
       </c>
@@ -45538,7 +45554,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="4110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4110" s="1"/>
       <c r="B4110" s="2"/>
     </row>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -46,7 +46,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +59,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -530,28 +523,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,118 +556,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4139"/>
+  <dimension ref="A1:C4142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4087" workbookViewId="0">
-      <selection activeCell="F4105" sqref="F4105"/>
+    <sheetView tabSelected="1" topLeftCell="A4123" workbookViewId="0">
+      <selection activeCell="D4141" sqref="D4141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46339,148 +46332,235 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4122" spans="1:2">
+    <row r="4122" spans="1:3">
       <c r="A4122" s="1">
         <v>4120</v>
       </c>
       <c r="B4122" s="2">
         <v>45760</v>
       </c>
-    </row>
-    <row r="4123" spans="1:2">
+      <c r="C4122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3">
       <c r="A4123" s="1">
         <v>4121</v>
       </c>
       <c r="B4123" s="2">
         <v>45761</v>
       </c>
-    </row>
-    <row r="4124" spans="1:2">
+      <c r="C4123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3">
       <c r="A4124" s="1">
         <v>4122</v>
       </c>
       <c r="B4124" s="2">
         <v>45762</v>
       </c>
-    </row>
-    <row r="4125" spans="1:2">
+      <c r="C4124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:3">
       <c r="A4125" s="1">
         <v>4123</v>
       </c>
       <c r="B4125" s="2">
         <v>45763</v>
       </c>
-    </row>
-    <row r="4126" spans="1:2">
+      <c r="C4125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:3">
       <c r="A4126" s="1">
         <v>4124</v>
       </c>
       <c r="B4126" s="2">
         <v>45764</v>
       </c>
-    </row>
-    <row r="4127" spans="1:2">
+      <c r="C4126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:3">
       <c r="A4127" s="1">
         <v>4125</v>
       </c>
       <c r="B4127" s="2">
         <v>45765</v>
       </c>
-    </row>
-    <row r="4128" spans="1:2">
+      <c r="C4127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:3">
       <c r="A4128" s="1">
         <v>4126</v>
       </c>
       <c r="B4128" s="2">
         <v>45766</v>
       </c>
-    </row>
-    <row r="4129" spans="1:2">
+      <c r="C4128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:3">
       <c r="A4129" s="1">
         <v>4127</v>
       </c>
       <c r="B4129" s="2">
         <v>45767</v>
       </c>
-    </row>
-    <row r="4130" spans="1:2">
+      <c r="C4129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:3">
       <c r="A4130" s="1">
         <v>4128</v>
       </c>
       <c r="B4130" s="2">
         <v>45768</v>
       </c>
-    </row>
-    <row r="4131" spans="1:2">
+      <c r="C4130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:3">
       <c r="A4131" s="1">
         <v>4129</v>
       </c>
       <c r="B4131" s="2">
         <v>45769</v>
       </c>
-    </row>
-    <row r="4132" spans="1:2">
+      <c r="C4131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:3">
       <c r="A4132" s="1">
         <v>4130</v>
       </c>
       <c r="B4132" s="2">
         <v>45770</v>
       </c>
-    </row>
-    <row r="4133" spans="1:2">
+      <c r="C4132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:3">
       <c r="A4133" s="1">
         <v>4131</v>
       </c>
       <c r="B4133" s="2">
         <v>45771</v>
       </c>
-    </row>
-    <row r="4134" spans="1:2">
+      <c r="C4133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:3">
       <c r="A4134" s="1">
         <v>4132</v>
       </c>
       <c r="B4134" s="2">
         <v>45772</v>
       </c>
-    </row>
-    <row r="4135" spans="1:2">
+      <c r="C4134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:3">
       <c r="A4135" s="1">
         <v>4133</v>
       </c>
       <c r="B4135" s="2">
         <v>45773</v>
       </c>
-    </row>
-    <row r="4136" spans="1:2">
+      <c r="C4135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:3">
       <c r="A4136" s="1">
         <v>4134</v>
       </c>
       <c r="B4136" s="2">
         <v>45774</v>
       </c>
-    </row>
-    <row r="4137" spans="1:2">
+      <c r="C4136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:3">
       <c r="A4137" s="1">
         <v>4135</v>
       </c>
       <c r="B4137" s="2">
         <v>45775</v>
       </c>
-    </row>
-    <row r="4138" spans="1:2">
+      <c r="C4137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:3">
       <c r="A4138" s="1">
         <v>4136</v>
       </c>
       <c r="B4138" s="2">
         <v>45776</v>
       </c>
-    </row>
-    <row r="4139" spans="1:2">
+      <c r="C4138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:3">
       <c r="A4139" s="1">
         <v>4137</v>
       </c>
       <c r="B4139" s="2">
         <v>45777</v>
+      </c>
+      <c r="C4139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:3">
+      <c r="A4140" s="1">
+        <v>4138</v>
+      </c>
+      <c r="B4140" s="2">
+        <v>45778</v>
+      </c>
+      <c r="C4140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:3">
+      <c r="A4141" s="1">
+        <v>4139</v>
+      </c>
+      <c r="B4141" s="2">
+        <v>45779</v>
+      </c>
+      <c r="C4141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:3">
+      <c r="A4142" s="1">
+        <v>4140</v>
+      </c>
+      <c r="B4142" s="2">
+        <v>45780</v>
+      </c>
+      <c r="C4142">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4142"/>
+  <dimension ref="A1:C4148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4123" workbookViewId="0">
-      <selection activeCell="D4141" sqref="D4141"/>
+      <selection activeCell="D4142" sqref="D4142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46563,6 +46563,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4143" spans="1:3">
+      <c r="A4143" s="1">
+        <v>4141</v>
+      </c>
+      <c r="B4143" s="2">
+        <v>45781</v>
+      </c>
+      <c r="C4143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:3">
+      <c r="A4144" s="1">
+        <v>4142</v>
+      </c>
+      <c r="B4144" s="2">
+        <v>45782</v>
+      </c>
+      <c r="C4144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:3">
+      <c r="A4145" s="1">
+        <v>4143</v>
+      </c>
+      <c r="B4145" s="2">
+        <v>45783</v>
+      </c>
+      <c r="C4145">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:3">
+      <c r="A4146" s="1">
+        <v>4144</v>
+      </c>
+      <c r="B4146" s="2">
+        <v>45784</v>
+      </c>
+      <c r="C4146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:3">
+      <c r="A4147" s="1">
+        <v>4145</v>
+      </c>
+      <c r="B4147" s="2">
+        <v>45785</v>
+      </c>
+      <c r="C4147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:3">
+      <c r="A4148" s="1">
+        <v>4146</v>
+      </c>
+      <c r="B4148" s="2">
+        <v>45786</v>
+      </c>
+      <c r="C4148">
+        <v>10.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4148"/>
+  <dimension ref="A1:C4150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4123" workbookViewId="0">
-      <selection activeCell="D4142" sqref="D4142"/>
+    <sheetView tabSelected="1" topLeftCell="A4129" workbookViewId="0">
+      <selection activeCell="C4140" sqref="C4140:C4150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46629,6 +46629,25 @@
         <v>10.4</v>
       </c>
     </row>
+    <row r="4149" spans="1:3">
+      <c r="A4149" s="1">
+        <v>4147</v>
+      </c>
+      <c r="B4149" s="2">
+        <v>45787</v>
+      </c>
+      <c r="C4149">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:2">
+      <c r="A4150" s="1">
+        <v>4148</v>
+      </c>
+      <c r="B4150" s="2">
+        <v>45788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4150"/>
+  <dimension ref="A1:C4156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4129" workbookViewId="0">
-      <selection activeCell="C4140" sqref="C4140:C4150"/>
+    <sheetView tabSelected="1" topLeftCell="A4135" workbookViewId="0">
+      <selection activeCell="E4153" sqref="E4153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46640,12 +46640,81 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4150" spans="1:2">
+    <row r="4150" spans="1:3">
       <c r="A4150" s="1">
         <v>4148</v>
       </c>
       <c r="B4150" s="2">
         <v>45788</v>
+      </c>
+      <c r="C4150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:3">
+      <c r="A4151" s="1">
+        <v>4149</v>
+      </c>
+      <c r="B4151" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C4151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:3">
+      <c r="A4152" s="1">
+        <v>4150</v>
+      </c>
+      <c r="B4152" s="2">
+        <v>45790</v>
+      </c>
+      <c r="C4152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:3">
+      <c r="A4153" s="1">
+        <v>4151</v>
+      </c>
+      <c r="B4153" s="2">
+        <v>45791</v>
+      </c>
+      <c r="C4153">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:3">
+      <c r="A4154" s="1">
+        <v>4152</v>
+      </c>
+      <c r="B4154" s="2">
+        <v>45792</v>
+      </c>
+      <c r="C4154">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:3">
+      <c r="A4155" s="1">
+        <v>4153</v>
+      </c>
+      <c r="B4155" s="2">
+        <v>45793</v>
+      </c>
+      <c r="C4155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:3">
+      <c r="A4156" s="1">
+        <v>4154</v>
+      </c>
+      <c r="B4156" s="2">
+        <v>45794</v>
+      </c>
+      <c r="C4156">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4156"/>
+  <dimension ref="A1:C4162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4135" workbookViewId="0">
-      <selection activeCell="E4153" sqref="E4153"/>
+    <sheetView tabSelected="1" topLeftCell="A4141" workbookViewId="0">
+      <selection activeCell="D4160" sqref="D4160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46717,6 +46717,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4157" spans="1:3">
+      <c r="A4157" s="1">
+        <v>4155</v>
+      </c>
+      <c r="B4157" s="2">
+        <v>45795</v>
+      </c>
+      <c r="C4157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:3">
+      <c r="A4158" s="1">
+        <v>4156</v>
+      </c>
+      <c r="B4158" s="2">
+        <v>45796</v>
+      </c>
+      <c r="C4158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:3">
+      <c r="A4159" s="1">
+        <v>4157</v>
+      </c>
+      <c r="B4159" s="2">
+        <v>45797</v>
+      </c>
+      <c r="C4159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:3">
+      <c r="A4160" s="1">
+        <v>4158</v>
+      </c>
+      <c r="B4160" s="2">
+        <v>45798</v>
+      </c>
+      <c r="C4160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:3">
+      <c r="A4161" s="1">
+        <v>4159</v>
+      </c>
+      <c r="B4161" s="2">
+        <v>45799</v>
+      </c>
+      <c r="C4161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:3">
+      <c r="A4162" s="1">
+        <v>4160</v>
+      </c>
+      <c r="B4162" s="2">
+        <v>45800</v>
+      </c>
+      <c r="C4162">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4162"/>
+  <dimension ref="A1:C4170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4141" workbookViewId="0">
-      <selection activeCell="D4160" sqref="D4160"/>
+    <sheetView tabSelected="1" topLeftCell="A4144" workbookViewId="0">
+      <selection activeCell="E4167" sqref="E4167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46783,6 +46783,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4163" spans="1:3">
+      <c r="A4163" s="1">
+        <v>4161</v>
+      </c>
+      <c r="B4163" s="2">
+        <v>45801</v>
+      </c>
+      <c r="C4163">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:3">
+      <c r="A4164" s="1">
+        <v>4162</v>
+      </c>
+      <c r="B4164" s="2">
+        <v>45802</v>
+      </c>
+      <c r="C4164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:3">
+      <c r="A4165" s="1">
+        <v>4163</v>
+      </c>
+      <c r="B4165" s="2">
+        <v>45803</v>
+      </c>
+      <c r="C4165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:3">
+      <c r="A4166" s="1">
+        <v>4164</v>
+      </c>
+      <c r="B4166" s="2">
+        <v>45804</v>
+      </c>
+      <c r="C4166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:3">
+      <c r="A4167" s="1">
+        <v>4165</v>
+      </c>
+      <c r="B4167" s="2">
+        <v>45805</v>
+      </c>
+      <c r="C4167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:3">
+      <c r="A4168" s="1">
+        <v>4166</v>
+      </c>
+      <c r="B4168" s="2">
+        <v>45806</v>
+      </c>
+      <c r="C4168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:3">
+      <c r="A4169" s="1">
+        <v>4167</v>
+      </c>
+      <c r="B4169" s="2">
+        <v>45807</v>
+      </c>
+      <c r="C4169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:3">
+      <c r="A4170" s="1">
+        <v>4168</v>
+      </c>
+      <c r="B4170" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C4170">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4170"/>
+  <dimension ref="A1:C4200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4144" workbookViewId="0">
-      <selection activeCell="E4167" sqref="E4167"/>
+    <sheetView tabSelected="1" topLeftCell="A4160" workbookViewId="0">
+      <selection activeCell="D4176" sqref="D4176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46871,6 +46871,273 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4171" spans="1:3">
+      <c r="A4171" s="1">
+        <v>4169</v>
+      </c>
+      <c r="B4171" s="2">
+        <v>45809</v>
+      </c>
+      <c r="C4171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:3">
+      <c r="A4172" s="1">
+        <v>4170</v>
+      </c>
+      <c r="B4172" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C4172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:3">
+      <c r="A4173" s="1">
+        <v>4171</v>
+      </c>
+      <c r="B4173" s="2">
+        <v>45811</v>
+      </c>
+      <c r="C4173">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:3">
+      <c r="A4174" s="1">
+        <v>4172</v>
+      </c>
+      <c r="B4174" s="2">
+        <v>45812</v>
+      </c>
+      <c r="C4174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:3">
+      <c r="A4175" s="1">
+        <v>4173</v>
+      </c>
+      <c r="B4175" s="2">
+        <v>45813</v>
+      </c>
+      <c r="C4175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:3">
+      <c r="A4176" s="1">
+        <v>4174</v>
+      </c>
+      <c r="B4176" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C4176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:3">
+      <c r="A4177" s="1">
+        <v>4175</v>
+      </c>
+      <c r="B4177" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C4177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:3">
+      <c r="A4178" s="1">
+        <v>4176</v>
+      </c>
+      <c r="B4178" s="2">
+        <v>45816</v>
+      </c>
+      <c r="C4178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:3">
+      <c r="A4179" s="1">
+        <v>4177</v>
+      </c>
+      <c r="B4179" s="2">
+        <v>45817</v>
+      </c>
+      <c r="C4179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:2">
+      <c r="A4180" s="1">
+        <v>4178</v>
+      </c>
+      <c r="B4180" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:2">
+      <c r="A4181" s="1">
+        <v>4179</v>
+      </c>
+      <c r="B4181" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:2">
+      <c r="A4182" s="1">
+        <v>4180</v>
+      </c>
+      <c r="B4182" s="2">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:2">
+      <c r="A4183" s="1">
+        <v>4181</v>
+      </c>
+      <c r="B4183" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:2">
+      <c r="A4184" s="1">
+        <v>4182</v>
+      </c>
+      <c r="B4184" s="2">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:2">
+      <c r="A4185" s="1">
+        <v>4183</v>
+      </c>
+      <c r="B4185" s="2">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:2">
+      <c r="A4186" s="1">
+        <v>4184</v>
+      </c>
+      <c r="B4186" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:2">
+      <c r="A4187" s="1">
+        <v>4185</v>
+      </c>
+      <c r="B4187" s="2">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:2">
+      <c r="A4188" s="1">
+        <v>4186</v>
+      </c>
+      <c r="B4188" s="2">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:2">
+      <c r="A4189" s="1">
+        <v>4187</v>
+      </c>
+      <c r="B4189" s="2">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:2">
+      <c r="A4190" s="1">
+        <v>4188</v>
+      </c>
+      <c r="B4190" s="2">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:2">
+      <c r="A4191" s="1">
+        <v>4189</v>
+      </c>
+      <c r="B4191" s="2">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:2">
+      <c r="A4192" s="1">
+        <v>4190</v>
+      </c>
+      <c r="B4192" s="2">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:2">
+      <c r="A4193" s="1">
+        <v>4191</v>
+      </c>
+      <c r="B4193" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:2">
+      <c r="A4194" s="1">
+        <v>4192</v>
+      </c>
+      <c r="B4194" s="2">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:2">
+      <c r="A4195" s="1">
+        <v>4193</v>
+      </c>
+      <c r="B4195" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:2">
+      <c r="A4196" s="1">
+        <v>4194</v>
+      </c>
+      <c r="B4196" s="2">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:2">
+      <c r="A4197" s="1">
+        <v>4195</v>
+      </c>
+      <c r="B4197" s="2">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:2">
+      <c r="A4198" s="1">
+        <v>4196</v>
+      </c>
+      <c r="B4198" s="2">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:2">
+      <c r="A4199" s="1">
+        <v>4197</v>
+      </c>
+      <c r="B4199" s="2">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:2">
+      <c r="A4200" s="1">
+        <v>4198</v>
+      </c>
+      <c r="B4200" s="2">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -736,6 +736,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -996,8 +1003,8 @@
   <sheetPr/>
   <dimension ref="A1:C4200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4160" workbookViewId="0">
-      <selection activeCell="D4176" sqref="D4176"/>
+    <sheetView tabSelected="1" topLeftCell="A4166" workbookViewId="0">
+      <selection activeCell="E4179" sqref="E4179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -46970,68 +46977,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4180" spans="1:2">
+    <row r="4180" spans="1:3">
       <c r="A4180" s="1">
         <v>4178</v>
       </c>
       <c r="B4180" s="2">
         <v>45818</v>
       </c>
-    </row>
-    <row r="4181" spans="1:2">
+      <c r="C4180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:3">
       <c r="A4181" s="1">
         <v>4179</v>
       </c>
       <c r="B4181" s="2">
         <v>45819</v>
       </c>
-    </row>
-    <row r="4182" spans="1:2">
+      <c r="C4181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:3">
       <c r="A4182" s="1">
         <v>4180</v>
       </c>
       <c r="B4182" s="2">
         <v>45820</v>
       </c>
-    </row>
-    <row r="4183" spans="1:2">
+      <c r="C4182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:3">
       <c r="A4183" s="1">
         <v>4181</v>
       </c>
       <c r="B4183" s="2">
         <v>45821</v>
       </c>
-    </row>
-    <row r="4184" spans="1:2">
+      <c r="C4183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:3">
       <c r="A4184" s="1">
         <v>4182</v>
       </c>
       <c r="B4184" s="2">
         <v>45822</v>
       </c>
-    </row>
-    <row r="4185" spans="1:2">
+      <c r="C4184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:3">
       <c r="A4185" s="1">
         <v>4183</v>
       </c>
       <c r="B4185" s="2">
         <v>45823</v>
       </c>
-    </row>
-    <row r="4186" spans="1:2">
+      <c r="C4185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:3">
       <c r="A4186" s="1">
         <v>4184</v>
       </c>
       <c r="B4186" s="2">
         <v>45824</v>
       </c>
-    </row>
-    <row r="4187" spans="1:2">
+      <c r="C4186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:3">
       <c r="A4187" s="1">
         <v>4185</v>
       </c>
       <c r="B4187" s="2">
         <v>45825</v>
+      </c>
+      <c r="C4187">
+        <v>0</v>
       </c>
     </row>
     <row r="4188" spans="1:2">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1003,8 +1003,8 @@
   <sheetPr/>
   <dimension ref="A1:C4200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4166" workbookViewId="0">
-      <selection activeCell="E4179" sqref="E4179"/>
+    <sheetView tabSelected="1" topLeftCell="A4184" workbookViewId="0">
+      <selection activeCell="E4196" sqref="E4196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47065,84 +47065,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4188" spans="1:2">
+    <row r="4188" spans="1:3">
       <c r="A4188" s="1">
         <v>4186</v>
       </c>
       <c r="B4188" s="2">
         <v>45826</v>
       </c>
-    </row>
-    <row r="4189" spans="1:2">
+      <c r="C4188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:3">
       <c r="A4189" s="1">
         <v>4187</v>
       </c>
       <c r="B4189" s="2">
         <v>45827</v>
       </c>
-    </row>
-    <row r="4190" spans="1:2">
+      <c r="C4189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:3">
       <c r="A4190" s="1">
         <v>4188</v>
       </c>
       <c r="B4190" s="2">
         <v>45828</v>
       </c>
-    </row>
-    <row r="4191" spans="1:2">
+      <c r="C4190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:3">
       <c r="A4191" s="1">
         <v>4189</v>
       </c>
       <c r="B4191" s="2">
         <v>45829</v>
       </c>
-    </row>
-    <row r="4192" spans="1:2">
+      <c r="C4191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:3">
       <c r="A4192" s="1">
         <v>4190</v>
       </c>
       <c r="B4192" s="2">
         <v>45830</v>
       </c>
-    </row>
-    <row r="4193" spans="1:2">
+      <c r="C4192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:3">
       <c r="A4193" s="1">
         <v>4191</v>
       </c>
       <c r="B4193" s="2">
         <v>45831</v>
       </c>
-    </row>
-    <row r="4194" spans="1:2">
+      <c r="C4193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:3">
       <c r="A4194" s="1">
         <v>4192</v>
       </c>
       <c r="B4194" s="2">
         <v>45832</v>
       </c>
-    </row>
-    <row r="4195" spans="1:2">
+      <c r="C4194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:3">
       <c r="A4195" s="1">
         <v>4193</v>
       </c>
       <c r="B4195" s="2">
         <v>45833</v>
       </c>
-    </row>
-    <row r="4196" spans="1:2">
+      <c r="C4195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:3">
       <c r="A4196" s="1">
         <v>4194</v>
       </c>
       <c r="B4196" s="2">
         <v>45834</v>
       </c>
-    </row>
-    <row r="4197" spans="1:2">
+      <c r="C4196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:3">
       <c r="A4197" s="1">
         <v>4195</v>
       </c>
       <c r="B4197" s="2">
         <v>45835</v>
+      </c>
+      <c r="C4197">
+        <v>0</v>
       </c>
     </row>
     <row r="4198" spans="1:2">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4200"/>
+  <dimension ref="A1:C4231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4184" workbookViewId="0">
-      <selection activeCell="E4196" sqref="E4196"/>
+    <sheetView tabSelected="1" topLeftCell="A4191" workbookViewId="0">
+      <selection activeCell="E4202" sqref="E4202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47175,28 +47175,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4198" spans="1:2">
+    <row r="4198" spans="1:3">
       <c r="A4198" s="1">
         <v>4196</v>
       </c>
       <c r="B4198" s="2">
         <v>45836</v>
       </c>
-    </row>
-    <row r="4199" spans="1:2">
+      <c r="C4198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:3">
       <c r="A4199" s="1">
         <v>4197</v>
       </c>
       <c r="B4199" s="2">
         <v>45837</v>
       </c>
-    </row>
-    <row r="4200" spans="1:2">
+      <c r="C4199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:3">
       <c r="A4200" s="1">
         <v>4198</v>
       </c>
       <c r="B4200" s="2">
         <v>45838</v>
+      </c>
+      <c r="C4200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:3">
+      <c r="A4201" s="1">
+        <v>4199</v>
+      </c>
+      <c r="B4201" s="2">
+        <v>45839</v>
+      </c>
+      <c r="C4201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:3">
+      <c r="A4202" s="1">
+        <v>4200</v>
+      </c>
+      <c r="B4202" s="2">
+        <v>45840</v>
+      </c>
+      <c r="C4202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:2">
+      <c r="A4203" s="1">
+        <v>4201</v>
+      </c>
+      <c r="B4203" s="2">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:2">
+      <c r="A4204" s="1">
+        <v>4202</v>
+      </c>
+      <c r="B4204" s="2">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:2">
+      <c r="A4205" s="1">
+        <v>4203</v>
+      </c>
+      <c r="B4205" s="2">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:2">
+      <c r="A4206" s="1">
+        <v>4204</v>
+      </c>
+      <c r="B4206" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:2">
+      <c r="A4207" s="1">
+        <v>4205</v>
+      </c>
+      <c r="B4207" s="2">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:2">
+      <c r="A4208" s="1">
+        <v>4206</v>
+      </c>
+      <c r="B4208" s="2">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:2">
+      <c r="A4209" s="1">
+        <v>4207</v>
+      </c>
+      <c r="B4209" s="2">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:2">
+      <c r="A4210" s="1">
+        <v>4208</v>
+      </c>
+      <c r="B4210" s="2">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:2">
+      <c r="A4211" s="1">
+        <v>4209</v>
+      </c>
+      <c r="B4211" s="2">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:2">
+      <c r="A4212" s="1">
+        <v>4210</v>
+      </c>
+      <c r="B4212" s="2">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:2">
+      <c r="A4213" s="1">
+        <v>4211</v>
+      </c>
+      <c r="B4213" s="2">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:2">
+      <c r="A4214" s="1">
+        <v>4212</v>
+      </c>
+      <c r="B4214" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2">
+      <c r="A4215" s="1">
+        <v>4213</v>
+      </c>
+      <c r="B4215" s="2">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2">
+      <c r="A4216" s="1">
+        <v>4214</v>
+      </c>
+      <c r="B4216" s="2">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2">
+      <c r="A4217" s="1">
+        <v>4215</v>
+      </c>
+      <c r="B4217" s="2">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2">
+      <c r="A4218" s="1">
+        <v>4216</v>
+      </c>
+      <c r="B4218" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2">
+      <c r="A4219" s="1">
+        <v>4217</v>
+      </c>
+      <c r="B4219" s="2">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2">
+      <c r="A4220" s="1">
+        <v>4218</v>
+      </c>
+      <c r="B4220" s="2">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2">
+      <c r="A4221" s="1">
+        <v>4219</v>
+      </c>
+      <c r="B4221" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:2">
+      <c r="A4222" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B4222" s="2">
+        <v>45860</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2">
+      <c r="A4223" s="1">
+        <v>4221</v>
+      </c>
+      <c r="B4223" s="2">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2">
+      <c r="A4224" s="1">
+        <v>4222</v>
+      </c>
+      <c r="B4224" s="2">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2">
+      <c r="A4225" s="1">
+        <v>4223</v>
+      </c>
+      <c r="B4225" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2">
+      <c r="A4226" s="1">
+        <v>4224</v>
+      </c>
+      <c r="B4226" s="2">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2">
+      <c r="A4227" s="1">
+        <v>4225</v>
+      </c>
+      <c r="B4227" s="2">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2">
+      <c r="A4228" s="1">
+        <v>4226</v>
+      </c>
+      <c r="B4228" s="2">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2">
+      <c r="A4229" s="1">
+        <v>4227</v>
+      </c>
+      <c r="B4229" s="2">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2">
+      <c r="A4230" s="1">
+        <v>4228</v>
+      </c>
+      <c r="B4230" s="2">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2">
+      <c r="A4231" s="1">
+        <v>4229</v>
+      </c>
+      <c r="B4231" s="2">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -736,13 +736,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1003,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:C4231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4191" workbookViewId="0">
-      <selection activeCell="E4202" sqref="E4202"/>
+    <sheetView tabSelected="1" topLeftCell="A4197" workbookViewId="0">
+      <selection activeCell="D4207" sqref="D4207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47230,68 +47223,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4203" spans="1:2">
+    <row r="4203" spans="1:3">
       <c r="A4203" s="1">
         <v>4201</v>
       </c>
       <c r="B4203" s="2">
         <v>45841</v>
       </c>
-    </row>
-    <row r="4204" spans="1:2">
+      <c r="C4203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:3">
       <c r="A4204" s="1">
         <v>4202</v>
       </c>
       <c r="B4204" s="2">
         <v>45842</v>
       </c>
-    </row>
-    <row r="4205" spans="1:2">
+      <c r="C4204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:3">
       <c r="A4205" s="1">
         <v>4203</v>
       </c>
       <c r="B4205" s="2">
         <v>45843</v>
       </c>
-    </row>
-    <row r="4206" spans="1:2">
+      <c r="C4205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:3">
       <c r="A4206" s="1">
         <v>4204</v>
       </c>
       <c r="B4206" s="2">
         <v>45844</v>
       </c>
-    </row>
-    <row r="4207" spans="1:2">
+      <c r="C4206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:3">
       <c r="A4207" s="1">
         <v>4205</v>
       </c>
       <c r="B4207" s="2">
         <v>45845</v>
       </c>
-    </row>
-    <row r="4208" spans="1:2">
+      <c r="C4207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:3">
       <c r="A4208" s="1">
         <v>4206</v>
       </c>
       <c r="B4208" s="2">
         <v>45846</v>
       </c>
-    </row>
-    <row r="4209" spans="1:2">
+      <c r="C4208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:3">
       <c r="A4209" s="1">
         <v>4207</v>
       </c>
       <c r="B4209" s="2">
         <v>45847</v>
       </c>
-    </row>
-    <row r="4210" spans="1:2">
+      <c r="C4209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:3">
       <c r="A4210" s="1">
         <v>4208</v>
       </c>
       <c r="B4210" s="2">
         <v>45848</v>
+      </c>
+      <c r="C4210">
+        <v>10.6</v>
       </c>
     </row>
     <row r="4211" spans="1:2">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:C4231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4197" workbookViewId="0">
-      <selection activeCell="D4207" sqref="D4207"/>
+    <sheetView tabSelected="1" topLeftCell="A4209" workbookViewId="0">
+      <selection activeCell="C4213" sqref="C4213:C4219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47311,76 +47311,103 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="4211" spans="1:2">
+    <row r="4211" spans="1:3">
       <c r="A4211" s="1">
         <v>4209</v>
       </c>
       <c r="B4211" s="2">
         <v>45849</v>
       </c>
-    </row>
-    <row r="4212" spans="1:2">
+      <c r="C4211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:3">
       <c r="A4212" s="1">
         <v>4210</v>
       </c>
       <c r="B4212" s="2">
         <v>45850</v>
       </c>
-    </row>
-    <row r="4213" spans="1:2">
+      <c r="C4212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:3">
       <c r="A4213" s="1">
         <v>4211</v>
       </c>
       <c r="B4213" s="2">
         <v>45851</v>
       </c>
-    </row>
-    <row r="4214" spans="1:2">
+      <c r="C4213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:3">
       <c r="A4214" s="1">
         <v>4212</v>
       </c>
       <c r="B4214" s="2">
         <v>45852</v>
       </c>
-    </row>
-    <row r="4215" spans="1:2">
+      <c r="C4214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:3">
       <c r="A4215" s="1">
         <v>4213</v>
       </c>
       <c r="B4215" s="2">
         <v>45853</v>
       </c>
-    </row>
-    <row r="4216" spans="1:2">
+      <c r="C4215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:3">
       <c r="A4216" s="1">
         <v>4214</v>
       </c>
       <c r="B4216" s="2">
         <v>45854</v>
       </c>
-    </row>
-    <row r="4217" spans="1:2">
+      <c r="C4216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:3">
       <c r="A4217" s="1">
         <v>4215</v>
       </c>
       <c r="B4217" s="2">
         <v>45855</v>
       </c>
-    </row>
-    <row r="4218" spans="1:2">
+      <c r="C4217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:3">
       <c r="A4218" s="1">
         <v>4216</v>
       </c>
       <c r="B4218" s="2">
         <v>45856</v>
       </c>
-    </row>
-    <row r="4219" spans="1:2">
+      <c r="C4218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:3">
       <c r="A4219" s="1">
         <v>4217</v>
       </c>
       <c r="B4219" s="2">
         <v>45857</v>
+      </c>
+      <c r="C4219">
+        <v>0</v>
       </c>
     </row>
     <row r="4220" spans="1:2">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C4231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4209" workbookViewId="0">
-      <selection activeCell="C4213" sqref="C4213:C4219"/>
+      <selection activeCell="D4223" sqref="D4223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47410,52 +47410,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4220" spans="1:2">
+    <row r="4220" spans="1:3">
       <c r="A4220" s="1">
         <v>4218</v>
       </c>
       <c r="B4220" s="2">
         <v>45858</v>
       </c>
-    </row>
-    <row r="4221" spans="1:2">
+      <c r="C4220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:3">
       <c r="A4221" s="1">
         <v>4219</v>
       </c>
       <c r="B4221" s="2">
         <v>45859</v>
       </c>
-    </row>
-    <row r="4222" spans="1:2">
+      <c r="C4221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:3">
       <c r="A4222" s="1">
         <v>4220</v>
       </c>
       <c r="B4222" s="2">
         <v>45860</v>
       </c>
-    </row>
-    <row r="4223" spans="1:2">
+      <c r="C4222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:3">
       <c r="A4223" s="1">
         <v>4221</v>
       </c>
       <c r="B4223" s="2">
         <v>45861</v>
       </c>
-    </row>
-    <row r="4224" spans="1:2">
+      <c r="C4223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:3">
       <c r="A4224" s="1">
         <v>4222</v>
       </c>
       <c r="B4224" s="2">
         <v>45862</v>
       </c>
-    </row>
-    <row r="4225" spans="1:2">
+      <c r="C4224">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:3">
       <c r="A4225" s="1">
         <v>4223</v>
       </c>
       <c r="B4225" s="2">
         <v>45863</v>
+      </c>
+      <c r="C4225">
+        <v>4.2</v>
       </c>
     </row>
     <row r="4226" spans="1:2">

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4231"/>
+  <dimension ref="A1:C4234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4209" workbookViewId="0">
-      <selection activeCell="D4223" sqref="D4223"/>
+    <sheetView tabSelected="1" topLeftCell="A4215" workbookViewId="0">
+      <selection activeCell="G4228" sqref="G4228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47476,52 +47476,103 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4226" spans="1:2">
+    <row r="4226" spans="1:3">
       <c r="A4226" s="1">
         <v>4224</v>
       </c>
       <c r="B4226" s="2">
         <v>45864</v>
       </c>
-    </row>
-    <row r="4227" spans="1:2">
+      <c r="C4226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:3">
       <c r="A4227" s="1">
         <v>4225</v>
       </c>
       <c r="B4227" s="2">
         <v>45865</v>
       </c>
-    </row>
-    <row r="4228" spans="1:2">
+      <c r="C4227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:3">
       <c r="A4228" s="1">
         <v>4226</v>
       </c>
       <c r="B4228" s="2">
         <v>45866</v>
       </c>
-    </row>
-    <row r="4229" spans="1:2">
+      <c r="C4228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:3">
       <c r="A4229" s="1">
         <v>4227</v>
       </c>
       <c r="B4229" s="2">
         <v>45867</v>
       </c>
-    </row>
-    <row r="4230" spans="1:2">
+      <c r="C4229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:3">
       <c r="A4230" s="1">
         <v>4228</v>
       </c>
       <c r="B4230" s="2">
         <v>45868</v>
       </c>
-    </row>
-    <row r="4231" spans="1:2">
+      <c r="C4230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:3">
       <c r="A4231" s="1">
         <v>4229</v>
       </c>
       <c r="B4231" s="2">
         <v>45869</v>
+      </c>
+      <c r="C4231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:3">
+      <c r="A4232" s="1">
+        <v>4230</v>
+      </c>
+      <c r="B4232" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C4232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:3">
+      <c r="A4233" s="1">
+        <v>4231</v>
+      </c>
+      <c r="B4233" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C4233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:3">
+      <c r="A4234" s="1">
+        <v>4232</v>
+      </c>
+      <c r="B4234" s="2">
+        <v>45872</v>
+      </c>
+      <c r="C4234">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4234"/>
+  <dimension ref="A1:C4251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4215" workbookViewId="0">
-      <selection activeCell="G4228" sqref="G4228"/>
+    <sheetView tabSelected="1" topLeftCell="A4221" workbookViewId="0">
+      <selection activeCell="H4225" sqref="H4225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47575,6 +47575,193 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4235" spans="1:3">
+      <c r="A4235" s="1">
+        <v>4233</v>
+      </c>
+      <c r="B4235" s="2">
+        <v>45873</v>
+      </c>
+      <c r="C4235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:3">
+      <c r="A4236" s="1">
+        <v>4234</v>
+      </c>
+      <c r="B4236" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C4236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:3">
+      <c r="A4237" s="1">
+        <v>4235</v>
+      </c>
+      <c r="B4237" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C4237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:3">
+      <c r="A4238" s="1">
+        <v>4236</v>
+      </c>
+      <c r="B4238" s="2">
+        <v>45876</v>
+      </c>
+      <c r="C4238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:3">
+      <c r="A4239" s="1">
+        <v>4237</v>
+      </c>
+      <c r="B4239" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C4239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:3">
+      <c r="A4240" s="1">
+        <v>4238</v>
+      </c>
+      <c r="B4240" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C4240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:3">
+      <c r="A4241" s="1">
+        <v>4239</v>
+      </c>
+      <c r="B4241" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C4241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:3">
+      <c r="A4242" s="1">
+        <v>4240</v>
+      </c>
+      <c r="B4242" s="2">
+        <v>45880</v>
+      </c>
+      <c r="C4242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:3">
+      <c r="A4243" s="1">
+        <v>4241</v>
+      </c>
+      <c r="B4243" s="2">
+        <v>45881</v>
+      </c>
+      <c r="C4243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:3">
+      <c r="A4244" s="1">
+        <v>4242</v>
+      </c>
+      <c r="B4244" s="2">
+        <v>45882</v>
+      </c>
+      <c r="C4244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:3">
+      <c r="A4245" s="1">
+        <v>4243</v>
+      </c>
+      <c r="B4245" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C4245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:3">
+      <c r="A4246" s="1">
+        <v>4244</v>
+      </c>
+      <c r="B4246" s="2">
+        <v>45884</v>
+      </c>
+      <c r="C4246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:3">
+      <c r="A4247" s="1">
+        <v>4245</v>
+      </c>
+      <c r="B4247" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C4247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:3">
+      <c r="A4248" s="1">
+        <v>4246</v>
+      </c>
+      <c r="B4248" s="2">
+        <v>45886</v>
+      </c>
+      <c r="C4248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:3">
+      <c r="A4249" s="1">
+        <v>4247</v>
+      </c>
+      <c r="B4249" s="2">
+        <v>45887</v>
+      </c>
+      <c r="C4249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:3">
+      <c r="A4250" s="1">
+        <v>4248</v>
+      </c>
+      <c r="B4250" s="2">
+        <v>45888</v>
+      </c>
+      <c r="C4250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:3">
+      <c r="A4251" s="1">
+        <v>4249</v>
+      </c>
+      <c r="B4251" s="2">
+        <v>45889</v>
+      </c>
+      <c r="C4251">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4251"/>
+  <dimension ref="A1:C4262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4221" workbookViewId="0">
-      <selection activeCell="H4225" sqref="H4225"/>
+    <sheetView tabSelected="1" topLeftCell="A4239" workbookViewId="0">
+      <selection activeCell="D4259" sqref="D4259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47762,6 +47762,127 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="4252" spans="1:3">
+      <c r="A4252" s="1">
+        <v>4250</v>
+      </c>
+      <c r="B4252" s="2">
+        <v>45890</v>
+      </c>
+      <c r="C4252">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:3">
+      <c r="A4253" s="1">
+        <v>4251</v>
+      </c>
+      <c r="B4253" s="2">
+        <v>45891</v>
+      </c>
+      <c r="C4253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:3">
+      <c r="A4254" s="1">
+        <v>4252</v>
+      </c>
+      <c r="B4254" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C4254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:3">
+      <c r="A4255" s="1">
+        <v>4253</v>
+      </c>
+      <c r="B4255" s="2">
+        <v>45893</v>
+      </c>
+      <c r="C4255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:3">
+      <c r="A4256" s="1">
+        <v>4254</v>
+      </c>
+      <c r="B4256" s="2">
+        <v>45894</v>
+      </c>
+      <c r="C4256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:3">
+      <c r="A4257" s="1">
+        <v>4255</v>
+      </c>
+      <c r="B4257" s="2">
+        <v>45895</v>
+      </c>
+      <c r="C4257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:3">
+      <c r="A4258" s="1">
+        <v>4256</v>
+      </c>
+      <c r="B4258" s="2">
+        <v>45896</v>
+      </c>
+      <c r="C4258">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:3">
+      <c r="A4259" s="1">
+        <v>4257</v>
+      </c>
+      <c r="B4259" s="2">
+        <v>45897</v>
+      </c>
+      <c r="C4259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:3">
+      <c r="A4260" s="1">
+        <v>4258</v>
+      </c>
+      <c r="B4260" s="2">
+        <v>45898</v>
+      </c>
+      <c r="C4260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:3">
+      <c r="A4261" s="1">
+        <v>4259</v>
+      </c>
+      <c r="B4261" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C4261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:3">
+      <c r="A4262" s="1">
+        <v>4260</v>
+      </c>
+      <c r="B4262" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C4262">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4262"/>
+  <dimension ref="A1:C4273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4239" workbookViewId="0">
-      <selection activeCell="D4259" sqref="D4259"/>
+    <sheetView tabSelected="1" topLeftCell="A4255" workbookViewId="0">
+      <selection activeCell="D4267" sqref="D4267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -47883,6 +47883,127 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4263" spans="1:3">
+      <c r="A4263" s="1">
+        <v>4261</v>
+      </c>
+      <c r="B4263" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C4263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:3">
+      <c r="A4264" s="1">
+        <v>4262</v>
+      </c>
+      <c r="B4264" s="2">
+        <v>45902</v>
+      </c>
+      <c r="C4264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:3">
+      <c r="A4265" s="1">
+        <v>4263</v>
+      </c>
+      <c r="B4265" s="2">
+        <v>45903</v>
+      </c>
+      <c r="C4265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:3">
+      <c r="A4266" s="1">
+        <v>4264</v>
+      </c>
+      <c r="B4266" s="2">
+        <v>45904</v>
+      </c>
+      <c r="C4266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:3">
+      <c r="A4267" s="1">
+        <v>4265</v>
+      </c>
+      <c r="B4267" s="2">
+        <v>45905</v>
+      </c>
+      <c r="C4267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:3">
+      <c r="A4268" s="1">
+        <v>4266</v>
+      </c>
+      <c r="B4268" s="2">
+        <v>45906</v>
+      </c>
+      <c r="C4268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:3">
+      <c r="A4269" s="1">
+        <v>4267</v>
+      </c>
+      <c r="B4269" s="2">
+        <v>45907</v>
+      </c>
+      <c r="C4269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:3">
+      <c r="A4270" s="1">
+        <v>4268</v>
+      </c>
+      <c r="B4270" s="2">
+        <v>45908</v>
+      </c>
+      <c r="C4270">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:3">
+      <c r="A4271" s="1">
+        <v>4269</v>
+      </c>
+      <c r="B4271" s="2">
+        <v>45909</v>
+      </c>
+      <c r="C4271">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:3">
+      <c r="A4272" s="1">
+        <v>4270</v>
+      </c>
+      <c r="B4272" s="2">
+        <v>45910</v>
+      </c>
+      <c r="C4272">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:3">
+      <c r="A4273" s="1">
+        <v>4271</v>
+      </c>
+      <c r="B4273" s="2">
+        <v>45911</v>
+      </c>
+      <c r="C4273">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4273"/>
+  <dimension ref="A1:C4283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4255" workbookViewId="0">
-      <selection activeCell="D4267" sqref="D4267"/>
+    <sheetView tabSelected="1" topLeftCell="A4264" workbookViewId="0">
+      <selection activeCell="D4280" sqref="D4280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -48004,6 +48004,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4274" spans="1:3">
+      <c r="A4274" s="1">
+        <v>4272</v>
+      </c>
+      <c r="B4274" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C4274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:3">
+      <c r="A4275" s="1">
+        <v>4273</v>
+      </c>
+      <c r="B4275" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C4275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:3">
+      <c r="A4276" s="1">
+        <v>4274</v>
+      </c>
+      <c r="B4276" s="2">
+        <v>45914</v>
+      </c>
+      <c r="C4276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:3">
+      <c r="A4277" s="1">
+        <v>4275</v>
+      </c>
+      <c r="B4277" s="2">
+        <v>45915</v>
+      </c>
+      <c r="C4277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:3">
+      <c r="A4278" s="1">
+        <v>4276</v>
+      </c>
+      <c r="B4278" s="2">
+        <v>45916</v>
+      </c>
+      <c r="C4278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:3">
+      <c r="A4279" s="1">
+        <v>4277</v>
+      </c>
+      <c r="B4279" s="2">
+        <v>45917</v>
+      </c>
+      <c r="C4279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:3">
+      <c r="A4280" s="1">
+        <v>4278</v>
+      </c>
+      <c r="B4280" s="2">
+        <v>45918</v>
+      </c>
+      <c r="C4280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:3">
+      <c r="A4281" s="1">
+        <v>4279</v>
+      </c>
+      <c r="B4281" s="2">
+        <v>45919</v>
+      </c>
+      <c r="C4281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:3">
+      <c r="A4282" s="1">
+        <v>4280</v>
+      </c>
+      <c r="B4282" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C4282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:3">
+      <c r="A4283" s="1">
+        <v>4281</v>
+      </c>
+      <c r="B4283" s="2">
+        <v>45921</v>
+      </c>
+      <c r="C4283">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4283"/>
+  <dimension ref="A1:C4304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4264" workbookViewId="0">
-      <selection activeCell="D4280" sqref="D4280"/>
+    <sheetView tabSelected="1" topLeftCell="A4284" workbookViewId="0">
+      <selection activeCell="C4305" sqref="C4305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -48114,6 +48114,237 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4284" spans="1:3">
+      <c r="A4284" s="1">
+        <v>4282</v>
+      </c>
+      <c r="B4284" s="2">
+        <v>45922</v>
+      </c>
+      <c r="C4284">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:3">
+      <c r="A4285" s="1">
+        <v>4283</v>
+      </c>
+      <c r="B4285" s="2">
+        <v>45923</v>
+      </c>
+      <c r="C4285">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:3">
+      <c r="A4286" s="1">
+        <v>4284</v>
+      </c>
+      <c r="B4286" s="2">
+        <v>45924</v>
+      </c>
+      <c r="C4286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:3">
+      <c r="A4287" s="1">
+        <v>4285</v>
+      </c>
+      <c r="B4287" s="2">
+        <v>45925</v>
+      </c>
+      <c r="C4287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:3">
+      <c r="A4288" s="1">
+        <v>4286</v>
+      </c>
+      <c r="B4288" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C4288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:3">
+      <c r="A4289" s="1">
+        <v>4287</v>
+      </c>
+      <c r="B4289" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C4289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:3">
+      <c r="A4290" s="1">
+        <v>4288</v>
+      </c>
+      <c r="B4290" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C4290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:3">
+      <c r="A4291" s="1">
+        <v>4289</v>
+      </c>
+      <c r="B4291" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C4291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:3">
+      <c r="A4292" s="1">
+        <v>4290</v>
+      </c>
+      <c r="B4292" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C4292">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:3">
+      <c r="A4293" s="1">
+        <v>4291</v>
+      </c>
+      <c r="B4293" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C4293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:3">
+      <c r="A4294" s="1">
+        <v>4292</v>
+      </c>
+      <c r="B4294" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C4294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:3">
+      <c r="A4295" s="1">
+        <v>4293</v>
+      </c>
+      <c r="B4295" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C4295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:3">
+      <c r="A4296" s="1">
+        <v>4294</v>
+      </c>
+      <c r="B4296" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C4296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:3">
+      <c r="A4297" s="1">
+        <v>4295</v>
+      </c>
+      <c r="B4297" s="2">
+        <v>45935</v>
+      </c>
+      <c r="C4297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:3">
+      <c r="A4298" s="1">
+        <v>4296</v>
+      </c>
+      <c r="B4298" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C4298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:3">
+      <c r="A4299" s="1">
+        <v>4297</v>
+      </c>
+      <c r="B4299" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C4299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:3">
+      <c r="A4300" s="1">
+        <v>4298</v>
+      </c>
+      <c r="B4300" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C4300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:3">
+      <c r="A4301" s="1">
+        <v>4299</v>
+      </c>
+      <c r="B4301" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C4301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:3">
+      <c r="A4302" s="1">
+        <v>4300</v>
+      </c>
+      <c r="B4302" s="2">
+        <v>45940</v>
+      </c>
+      <c r="C4302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:3">
+      <c r="A4303" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B4303" s="2">
+        <v>45941</v>
+      </c>
+      <c r="C4303">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:3">
+      <c r="A4304" s="1">
+        <v>4302</v>
+      </c>
+      <c r="B4304" s="2">
+        <v>45942</v>
+      </c>
+      <c r="C4304">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4304"/>
+  <dimension ref="A1:C4310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4284" workbookViewId="0">
-      <selection activeCell="C4305" sqref="C4305"/>
+    <sheetView tabSelected="1" topLeftCell="A4290" workbookViewId="0">
+      <selection activeCell="C4311" sqref="C4311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -30709,7 +30709,7 @@
         <v>44339</v>
       </c>
       <c r="C2701">
-        <v>0</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="2702" spans="1:3">
@@ -30720,7 +30720,7 @@
         <v>44340</v>
       </c>
       <c r="C2702">
-        <v>29.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="2703" spans="1:3">
@@ -31974,7 +31974,7 @@
         <v>44454</v>
       </c>
       <c r="C2816">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="2817" spans="1:3">
@@ -31985,7 +31985,7 @@
         <v>44455</v>
       </c>
       <c r="C2817">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="2818" spans="1:3">
@@ -37606,7 +37606,7 @@
         <v>44966</v>
       </c>
       <c r="C3328">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3329" spans="1:3">
@@ -37617,7 +37617,7 @@
         <v>44967</v>
       </c>
       <c r="C3329">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3330" spans="1:3">
@@ -42479,7 +42479,7 @@
         <v>45409</v>
       </c>
       <c r="C3771">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3772" spans="1:3">
@@ -44096,7 +44096,7 @@
         <v>45556</v>
       </c>
       <c r="C3918">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3919" spans="1:3">
@@ -44107,7 +44107,7 @@
         <v>45557</v>
       </c>
       <c r="C3919">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3920" spans="1:3">
@@ -44998,7 +44998,7 @@
         <v>45638</v>
       </c>
       <c r="C4000">
-        <v>0.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4001" spans="1:3">
@@ -45009,7 +45009,7 @@
         <v>45639</v>
       </c>
       <c r="C4001">
-        <v>7.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4002" spans="1:3">
@@ -46637,7 +46637,7 @@
         <v>45787</v>
       </c>
       <c r="C4149">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4150" spans="1:3">
@@ -46648,7 +46648,7 @@
         <v>45788</v>
       </c>
       <c r="C4150">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4151" spans="1:3">
@@ -48343,6 +48343,72 @@
       </c>
       <c r="C4304">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:3">
+      <c r="A4305" s="1">
+        <v>4303</v>
+      </c>
+      <c r="B4305" s="2">
+        <v>45943</v>
+      </c>
+      <c r="C4305">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:3">
+      <c r="A4306" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B4306" s="2">
+        <v>45944</v>
+      </c>
+      <c r="C4306">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:3">
+      <c r="A4307" s="1">
+        <v>4305</v>
+      </c>
+      <c r="B4307" s="2">
+        <v>45945</v>
+      </c>
+      <c r="C4307">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:3">
+      <c r="A4308" s="1">
+        <v>4306</v>
+      </c>
+      <c r="B4308" s="2">
+        <v>45946</v>
+      </c>
+      <c r="C4308">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:3">
+      <c r="A4309" s="1">
+        <v>4307</v>
+      </c>
+      <c r="B4309" s="2">
+        <v>45947</v>
+      </c>
+      <c r="C4309">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:3">
+      <c r="A4310" s="1">
+        <v>4308</v>
+      </c>
+      <c r="B4310" s="2">
+        <v>45948</v>
+      </c>
+      <c r="C4310">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -822,7 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1143,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4318"/>
+  <dimension ref="A1:E4324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4304" workbookViewId="0">
+      <selection activeCell="C4324" sqref="C4324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -8560,7 +8559,7 @@
       <c r="B665" s="10">
         <v>42303</v>
       </c>
-      <c r="C665" s="16">
+      <c r="C665" s="15">
         <v>1.2</v>
       </c>
       <c r="D665">
@@ -9466,7 +9465,7 @@
       <c r="B746" s="10">
         <v>42384</v>
       </c>
-      <c r="C746" s="16">
+      <c r="C746" s="15">
         <v>3.6</v>
       </c>
       <c r="D746">
@@ -49722,10 +49721,76 @@
         <v>45956</v>
       </c>
       <c r="C4318">
-        <v>16.4</v>
+        <v>18.8</v>
       </c>
       <c r="E4318">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:3">
+      <c r="A4319" s="7">
+        <v>4317</v>
+      </c>
+      <c r="B4319" s="10">
+        <v>45957</v>
+      </c>
+      <c r="C4319">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:3">
+      <c r="A4320" s="7">
+        <v>4318</v>
+      </c>
+      <c r="B4320" s="10">
+        <v>45958</v>
+      </c>
+      <c r="C4320">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:3">
+      <c r="A4321" s="7">
+        <v>4319</v>
+      </c>
+      <c r="B4321" s="10">
+        <v>45959</v>
+      </c>
+      <c r="C4321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:3">
+      <c r="A4322" s="7">
+        <v>4320</v>
+      </c>
+      <c r="B4322" s="10">
+        <v>45960</v>
+      </c>
+      <c r="C4322">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:3">
+      <c r="A4323" s="7">
+        <v>4321</v>
+      </c>
+      <c r="B4323" s="10">
+        <v>45961</v>
+      </c>
+      <c r="C4323">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:3">
+      <c r="A4324" s="7">
+        <v>4322</v>
+      </c>
+      <c r="B4324" s="10">
+        <v>45962</v>
+      </c>
+      <c r="C4324">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4324"/>
+  <dimension ref="A1:E4331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4304" workbookViewId="0">
-      <selection activeCell="C4324" sqref="C4324"/>
+    <sheetView tabSelected="1" topLeftCell="A4311" workbookViewId="0">
+      <selection activeCell="C4331" sqref="C4331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -49791,6 +49791,89 @@
       </c>
       <c r="C4324">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:3">
+      <c r="A4325" s="7">
+        <v>4323</v>
+      </c>
+      <c r="B4325" s="10">
+        <v>45963</v>
+      </c>
+      <c r="C4325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:3">
+      <c r="A4326" s="7">
+        <v>4324</v>
+      </c>
+      <c r="B4326" s="10">
+        <v>45964</v>
+      </c>
+      <c r="C4326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:3">
+      <c r="A4327" s="7">
+        <v>4325</v>
+      </c>
+      <c r="B4327" s="10">
+        <v>45965</v>
+      </c>
+      <c r="C4327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:3">
+      <c r="A4328" s="7">
+        <v>4326</v>
+      </c>
+      <c r="B4328" s="10">
+        <v>45966</v>
+      </c>
+      <c r="C4328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:5">
+      <c r="A4329" s="7">
+        <v>4327</v>
+      </c>
+      <c r="B4329" s="10">
+        <v>45967</v>
+      </c>
+      <c r="C4329">
+        <v>37</v>
+      </c>
+      <c r="D4329">
+        <v>1</v>
+      </c>
+      <c r="E4329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:3">
+      <c r="A4330" s="7">
+        <v>4328</v>
+      </c>
+      <c r="B4330" s="10">
+        <v>45968</v>
+      </c>
+      <c r="C4330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:3">
+      <c r="A4331" s="7">
+        <v>4329</v>
+      </c>
+      <c r="B4331" s="10">
+        <v>45969</v>
+      </c>
+      <c r="C4331">
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4331"/>
+  <dimension ref="A1:E4340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4311" workbookViewId="0">
-      <selection activeCell="C4331" sqref="C4331"/>
+    <sheetView tabSelected="1" topLeftCell="A4317" workbookViewId="0">
+      <selection activeCell="E4340" sqref="E4340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -49874,6 +49874,117 @@
       </c>
       <c r="C4331">
         <v>30.4</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:3">
+      <c r="A4332" s="7">
+        <v>4330</v>
+      </c>
+      <c r="B4332" s="10">
+        <v>45970</v>
+      </c>
+      <c r="C4332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:3">
+      <c r="A4333" s="7">
+        <v>4331</v>
+      </c>
+      <c r="B4333" s="10">
+        <v>45971</v>
+      </c>
+      <c r="C4333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:4">
+      <c r="A4334" s="7">
+        <v>4332</v>
+      </c>
+      <c r="B4334" s="10">
+        <v>45972</v>
+      </c>
+      <c r="C4334">
+        <v>0.2</v>
+      </c>
+      <c r="D4334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:4">
+      <c r="A4335" s="7">
+        <v>4333</v>
+      </c>
+      <c r="B4335" s="10">
+        <v>45973</v>
+      </c>
+      <c r="C4335">
+        <v>0.2</v>
+      </c>
+      <c r="D4335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:3">
+      <c r="A4336" s="7">
+        <v>4334</v>
+      </c>
+      <c r="B4336" s="10">
+        <v>45974</v>
+      </c>
+      <c r="C4336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:3">
+      <c r="A4337" s="7">
+        <v>4335</v>
+      </c>
+      <c r="B4337" s="10">
+        <v>45975</v>
+      </c>
+      <c r="C4337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:4">
+      <c r="A4338" s="7">
+        <v>4336</v>
+      </c>
+      <c r="B4338" s="10">
+        <v>45976</v>
+      </c>
+      <c r="C4338">
+        <v>0.2</v>
+      </c>
+      <c r="D4338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:3">
+      <c r="A4339" s="7">
+        <v>4337</v>
+      </c>
+      <c r="B4339" s="10">
+        <v>45977</v>
+      </c>
+      <c r="C4339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:5">
+      <c r="A4340" s="7">
+        <v>4338</v>
+      </c>
+      <c r="B4340" s="10">
+        <v>45978</v>
+      </c>
+      <c r="C4340">
+        <v>11</v>
+      </c>
+      <c r="E4340">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4340"/>
+  <dimension ref="A1:E4344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4317" workbookViewId="0">
-      <selection activeCell="E4340" sqref="E4340"/>
+    <sheetView tabSelected="1" topLeftCell="A4320" workbookViewId="0">
+      <selection activeCell="C4324" sqref="C4324:C4344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -49984,6 +49984,62 @@
         <v>11</v>
       </c>
       <c r="E4340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:4">
+      <c r="A4341" s="7">
+        <v>4339</v>
+      </c>
+      <c r="B4341" s="10">
+        <v>45979</v>
+      </c>
+      <c r="C4341">
+        <v>1</v>
+      </c>
+      <c r="D4341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:3">
+      <c r="A4342" s="7">
+        <v>4340</v>
+      </c>
+      <c r="B4342" s="10">
+        <v>45980</v>
+      </c>
+      <c r="C4342">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:4">
+      <c r="A4343" s="7">
+        <v>4341</v>
+      </c>
+      <c r="B4343" s="10">
+        <v>45981</v>
+      </c>
+      <c r="C4343">
+        <v>1.4</v>
+      </c>
+      <c r="D4343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:5">
+      <c r="A4344" s="7">
+        <v>4342</v>
+      </c>
+      <c r="B4344" s="10">
+        <v>45982</v>
+      </c>
+      <c r="C4344">
+        <v>3.8</v>
+      </c>
+      <c r="D4344">
+        <v>1</v>
+      </c>
+      <c r="E4344">
         <v>1</v>
       </c>
     </row>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4344"/>
+  <dimension ref="A1:E4350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4320" workbookViewId="0">
-      <selection activeCell="C4324" sqref="C4324:C4344"/>
+    <sheetView tabSelected="1" topLeftCell="A4324" workbookViewId="0">
+      <selection activeCell="C4324" sqref="C4324:C4350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50040,6 +50040,84 @@
         <v>1</v>
       </c>
       <c r="E4344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:3">
+      <c r="A4345" s="7">
+        <v>4343</v>
+      </c>
+      <c r="B4345" s="10">
+        <v>45983</v>
+      </c>
+      <c r="C4345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:3">
+      <c r="A4346" s="7">
+        <v>4344</v>
+      </c>
+      <c r="B4346" s="10">
+        <v>45984</v>
+      </c>
+      <c r="C4346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:3">
+      <c r="A4347" s="7">
+        <v>4345</v>
+      </c>
+      <c r="B4347" s="10">
+        <v>45985</v>
+      </c>
+      <c r="C4347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:4">
+      <c r="A4348" s="7">
+        <v>4346</v>
+      </c>
+      <c r="B4348" s="10">
+        <v>45986</v>
+      </c>
+      <c r="C4348">
+        <v>1.4</v>
+      </c>
+      <c r="D4348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:5">
+      <c r="A4349" s="7">
+        <v>4347</v>
+      </c>
+      <c r="B4349" s="10">
+        <v>45987</v>
+      </c>
+      <c r="C4349">
+        <v>3.4</v>
+      </c>
+      <c r="D4349">
+        <v>1</v>
+      </c>
+      <c r="E4349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:4">
+      <c r="A4350" s="7">
+        <v>4348</v>
+      </c>
+      <c r="B4350" s="10">
+        <v>45988</v>
+      </c>
+      <c r="C4350">
+        <v>0.4</v>
+      </c>
+      <c r="D4350">
         <v>1</v>
       </c>
     </row>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4350"/>
+  <dimension ref="A1:E4365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4324" workbookViewId="0">
-      <selection activeCell="C4324" sqref="C4324:C4350"/>
+    <sheetView tabSelected="1" topLeftCell="A4343" workbookViewId="0">
+      <selection activeCell="D4364" sqref="D4364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50119,6 +50119,189 @@
       </c>
       <c r="D4350">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:3">
+      <c r="A4351" s="7">
+        <v>4349</v>
+      </c>
+      <c r="B4351" s="10">
+        <v>45989</v>
+      </c>
+      <c r="C4351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:3">
+      <c r="A4352" s="7">
+        <v>4350</v>
+      </c>
+      <c r="B4352" s="10">
+        <v>45990</v>
+      </c>
+      <c r="C4352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:3">
+      <c r="A4353" s="7">
+        <v>4351</v>
+      </c>
+      <c r="B4353" s="10">
+        <v>45991</v>
+      </c>
+      <c r="C4353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:3">
+      <c r="A4354" s="7">
+        <v>4352</v>
+      </c>
+      <c r="B4354" s="10">
+        <v>45992</v>
+      </c>
+      <c r="C4354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:4">
+      <c r="A4355" s="7">
+        <v>4353</v>
+      </c>
+      <c r="B4355" s="10">
+        <v>45993</v>
+      </c>
+      <c r="C4355">
+        <v>0.2</v>
+      </c>
+      <c r="D4355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:3">
+      <c r="A4356" s="7">
+        <v>4354</v>
+      </c>
+      <c r="B4356" s="10">
+        <v>45994</v>
+      </c>
+      <c r="C4356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:4">
+      <c r="A4357" s="7">
+        <v>4355</v>
+      </c>
+      <c r="B4357" s="10">
+        <v>45995</v>
+      </c>
+      <c r="C4357">
+        <v>0.6</v>
+      </c>
+      <c r="D4357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:4">
+      <c r="A4358" s="7">
+        <v>4356</v>
+      </c>
+      <c r="B4358" s="10">
+        <v>45996</v>
+      </c>
+      <c r="C4358">
+        <v>1.2</v>
+      </c>
+      <c r="D4358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:3">
+      <c r="A4359" s="7">
+        <v>4357</v>
+      </c>
+      <c r="B4359" s="10">
+        <v>45997</v>
+      </c>
+      <c r="C4359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:3">
+      <c r="A4360" s="7">
+        <v>4358</v>
+      </c>
+      <c r="B4360" s="10">
+        <v>45998</v>
+      </c>
+      <c r="C4360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:4">
+      <c r="A4361" s="7">
+        <v>4359</v>
+      </c>
+      <c r="B4361" s="10">
+        <v>45999</v>
+      </c>
+      <c r="C4361">
+        <v>0.2</v>
+      </c>
+      <c r="D4361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:4">
+      <c r="A4362" s="7">
+        <v>4360</v>
+      </c>
+      <c r="B4362" s="10">
+        <v>46000</v>
+      </c>
+      <c r="C4362">
+        <v>0.2</v>
+      </c>
+      <c r="D4362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:4">
+      <c r="A4363" s="7">
+        <v>4361</v>
+      </c>
+      <c r="B4363" s="10">
+        <v>46001</v>
+      </c>
+      <c r="C4363">
+        <v>0.2</v>
+      </c>
+      <c r="D4363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:4">
+      <c r="A4364" s="7">
+        <v>4362</v>
+      </c>
+      <c r="B4364" s="10">
+        <v>46002</v>
+      </c>
+      <c r="C4364">
+        <v>0.2</v>
+      </c>
+      <c r="D4364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2">
+      <c r="A4365" s="7">
+        <v>4363</v>
+      </c>
+      <c r="B4365" s="10">
+        <v>46003</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Manual rain gage data" sheetId="1" r:id="rId1"/>
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4365"/>
+  <dimension ref="A1:E4373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4343" workbookViewId="0">
-      <selection activeCell="D4364" sqref="D4364"/>
+    <sheetView tabSelected="1" topLeftCell="A4352" workbookViewId="0">
+      <selection activeCell="D4372" sqref="D4372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50296,12 +50296,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4365" spans="1:2">
+    <row r="4365" spans="1:3">
       <c r="A4365" s="7">
         <v>4363</v>
       </c>
       <c r="B4365" s="10">
         <v>46003</v>
+      </c>
+      <c r="C4365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:4">
+      <c r="A4366" s="7">
+        <v>4364</v>
+      </c>
+      <c r="B4366" s="10">
+        <v>46004</v>
+      </c>
+      <c r="C4366">
+        <v>3.8</v>
+      </c>
+      <c r="D4366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:4">
+      <c r="A4367" s="7">
+        <v>4365</v>
+      </c>
+      <c r="B4367" s="10">
+        <v>46005</v>
+      </c>
+      <c r="C4367">
+        <v>0.2</v>
+      </c>
+      <c r="D4367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:3">
+      <c r="A4368" s="7">
+        <v>4366</v>
+      </c>
+      <c r="B4368" s="10">
+        <v>46006</v>
+      </c>
+      <c r="C4368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:4">
+      <c r="A4369" s="7">
+        <v>4367</v>
+      </c>
+      <c r="B4369" s="10">
+        <v>46007</v>
+      </c>
+      <c r="C4369">
+        <v>0.2</v>
+      </c>
+      <c r="D4369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:3">
+      <c r="A4370" s="7">
+        <v>4368</v>
+      </c>
+      <c r="B4370" s="10">
+        <v>46008</v>
+      </c>
+      <c r="C4370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:4">
+      <c r="A4371" s="7">
+        <v>4369</v>
+      </c>
+      <c r="B4371" s="10">
+        <v>46009</v>
+      </c>
+      <c r="C4371">
+        <v>0.2</v>
+      </c>
+      <c r="D4371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:4">
+      <c r="A4372" s="7">
+        <v>4370</v>
+      </c>
+      <c r="B4372" s="10">
+        <v>46010</v>
+      </c>
+      <c r="C4372">
+        <v>0.6</v>
+      </c>
+      <c r="D4372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2">
+      <c r="A4373" s="7">
+        <v>4371</v>
+      </c>
+      <c r="B4373" s="10">
+        <v>46011</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4373"/>
+  <dimension ref="A1:E4377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4352" workbookViewId="0">
-      <selection activeCell="D4372" sqref="D4372"/>
+    <sheetView tabSelected="1" topLeftCell="A4357" workbookViewId="0">
+      <selection activeCell="D4375" sqref="D4375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50399,12 +50399,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4373" spans="1:2">
+    <row r="4373" spans="1:3">
       <c r="A4373" s="7">
         <v>4371</v>
       </c>
       <c r="B4373" s="10">
         <v>46011</v>
+      </c>
+      <c r="C4373">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:3">
+      <c r="A4374" s="7">
+        <v>4372</v>
+      </c>
+      <c r="B4374" s="10">
+        <v>46012</v>
+      </c>
+      <c r="C4374">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:3">
+      <c r="A4375" s="7">
+        <v>4373</v>
+      </c>
+      <c r="B4375" s="10">
+        <v>46013</v>
+      </c>
+      <c r="C4375">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:4">
+      <c r="A4376" s="7">
+        <v>4374</v>
+      </c>
+      <c r="B4376" s="10">
+        <v>46014</v>
+      </c>
+      <c r="C4376">
+        <v>12.8</v>
+      </c>
+      <c r="D4376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2">
+      <c r="A4377" s="7">
+        <v>4375</v>
+      </c>
+      <c r="B4377" s="10">
+        <v>46015</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4377"/>
+  <dimension ref="A1:E4382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4357" workbookViewId="0">
-      <selection activeCell="D4375" sqref="D4375"/>
+      <selection activeCell="C4383" sqref="C4383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50446,12 +50446,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4377" spans="1:2">
+    <row r="4377" spans="1:3">
       <c r="A4377" s="7">
         <v>4375</v>
       </c>
       <c r="B4377" s="10">
         <v>46015</v>
+      </c>
+      <c r="C4377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:3">
+      <c r="A4378" s="7">
+        <v>4376</v>
+      </c>
+      <c r="B4378" s="10">
+        <v>46016</v>
+      </c>
+      <c r="C4378">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:3">
+      <c r="A4379" s="7">
+        <v>4377</v>
+      </c>
+      <c r="B4379" s="10">
+        <v>46017</v>
+      </c>
+      <c r="C4379">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:3">
+      <c r="A4380" s="7">
+        <v>4378</v>
+      </c>
+      <c r="B4380" s="10">
+        <v>46018</v>
+      </c>
+      <c r="C4380">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:3">
+      <c r="A4381" s="7">
+        <v>4379</v>
+      </c>
+      <c r="B4381" s="10">
+        <v>46019</v>
+      </c>
+      <c r="C4381">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:3">
+      <c r="A4382" s="7">
+        <v>4380</v>
+      </c>
+      <c r="B4382" s="10">
+        <v>46020</v>
+      </c>
+      <c r="C4382">
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4382"/>
+  <dimension ref="A1:E4388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4357" workbookViewId="0">
-      <selection activeCell="C4383" sqref="C4383"/>
+    <sheetView tabSelected="1" topLeftCell="A4363" workbookViewId="0">
+      <selection activeCell="F4383" sqref="F4383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50510,6 +50510,90 @@
       </c>
       <c r="C4382">
         <v>19.6</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:4">
+      <c r="A4383" s="7">
+        <v>4381</v>
+      </c>
+      <c r="B4383" s="10">
+        <v>46021</v>
+      </c>
+      <c r="C4383">
+        <v>0.6</v>
+      </c>
+      <c r="D4383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:4">
+      <c r="A4384" s="7">
+        <v>4382</v>
+      </c>
+      <c r="B4384" s="10">
+        <v>46022</v>
+      </c>
+      <c r="C4384">
+        <v>0.2</v>
+      </c>
+      <c r="D4384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:4">
+      <c r="A4385" s="7">
+        <v>4383</v>
+      </c>
+      <c r="B4385" s="10">
+        <v>46023</v>
+      </c>
+      <c r="C4385">
+        <v>0.2</v>
+      </c>
+      <c r="D4385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:4">
+      <c r="A4386" s="7">
+        <v>4384</v>
+      </c>
+      <c r="B4386" s="10">
+        <v>46024</v>
+      </c>
+      <c r="C4386">
+        <v>0.2</v>
+      </c>
+      <c r="D4386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:4">
+      <c r="A4387" s="7">
+        <v>4385</v>
+      </c>
+      <c r="B4387" s="10">
+        <v>46025</v>
+      </c>
+      <c r="C4387">
+        <v>0.2</v>
+      </c>
+      <c r="D4387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:4">
+      <c r="A4388" s="7">
+        <v>4386</v>
+      </c>
+      <c r="B4388" s="10">
+        <v>46026</v>
+      </c>
+      <c r="C4388">
+        <v>3.8</v>
+      </c>
+      <c r="D4388">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/daily_manual_rain_gage_data.xlsx
+++ b/data/daily_manual_rain_gage_data.xlsx
@@ -1142,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4388"/>
+  <dimension ref="A1:E4404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4363" workbookViewId="0">
-      <selection activeCell="F4383" sqref="F4383"/>
+    <sheetView tabSelected="1" topLeftCell="A4378" workbookViewId="0">
+      <selection activeCell="C4404" sqref="C4404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -50594,6 +50594,207 @@
       </c>
       <c r="D4388">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:4">
+      <c r="A4389" s="7">
+        <v>4387</v>
+      </c>
+      <c r="B4389" s="10">
+        <v>46027</v>
+      </c>
+      <c r="C4389">
+        <v>1.2</v>
+      </c>
+      <c r="D4389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:4">
+      <c r="A4390" s="7">
+        <v>4388</v>
+      </c>
+      <c r="B4390" s="10">
+        <v>46028</v>
+      </c>
+      <c r="C4390">
+        <v>1.4</v>
+      </c>
+      <c r="D4390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:4">
+      <c r="A4391" s="7">
+        <v>4389</v>
+      </c>
+      <c r="B4391" s="10">
+        <v>46029</v>
+      </c>
+      <c r="C4391">
+        <v>0.6</v>
+      </c>
+      <c r="D4391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:3">
+      <c r="A4392" s="7">
+        <v>4390</v>
+      </c>
+      <c r="B4392" s="10">
+        <v>46030</v>
+      </c>
+      <c r="C4392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:3">
+      <c r="A4393" s="7">
+        <v>4391</v>
+      </c>
+      <c r="B4393" s="10">
+        <v>46031</v>
+      </c>
+      <c r="C4393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:3">
+      <c r="A4394" s="7">
+        <v>4392</v>
+      </c>
+      <c r="B4394" s="10">
+        <v>46032</v>
+      </c>
+      <c r="C4394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:3">
+      <c r="A4395" s="7">
+        <v>4393</v>
+      </c>
+      <c r="B4395" s="10">
+        <v>46033</v>
+      </c>
+      <c r="C4395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:3">
+      <c r="A4396" s="7">
+        <v>4394</v>
+      </c>
+      <c r="B4396" s="10">
+        <v>46034</v>
+      </c>
+      <c r="C4396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:4">
+      <c r="A4397" s="7">
+        <v>4395</v>
+      </c>
+      <c r="B4397" s="10">
+        <v>46035</v>
+      </c>
+      <c r="C4397">
+        <v>0.2</v>
+      </c>
+      <c r="D4397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:4">
+      <c r="A4398" s="7">
+        <v>4396</v>
+      </c>
+      <c r="B4398" s="10">
+        <v>46036</v>
+      </c>
+      <c r="C4398">
+        <v>0.2</v>
+      </c>
+      <c r="D4398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:4">
+      <c r="A4399" s="7">
+        <v>4397</v>
+      </c>
+      <c r="B4399" s="10">
+        <v>46037</v>
+      </c>
+      <c r="C4399">
+        <v>0.2</v>
+      </c>
+      <c r="D4399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:4">
+      <c r="A4400" s="7">
+        <v>4398</v>
+      </c>
+      <c r="B4400" s="10">
+        <v>46038</v>
+      </c>
+      <c r="C4400">
+        <v>0.2</v>
+      </c>
+      <c r="D4400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:3">
+      <c r="A4401" s="7">
+        <v>4399</v>
+      </c>
+      <c r="B4401" s="10">
+        <v>46039</v>
+      </c>
+      <c r="C4401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:5">
+      <c r="A4402" s="7">
+        <v>4400</v>
+      </c>
+      <c r="B4402" s="10">
+        <v>46040</v>
+      </c>
+      <c r="C4402">
+        <v>4.6</v>
+      </c>
+      <c r="D4402"/>
+      <c r="E4402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:4">
+      <c r="A4403" s="7">
+        <v>4401</v>
+      </c>
+      <c r="B4403" s="10">
+        <v>46041</v>
+      </c>
+      <c r="C4403">
+        <v>22.4</v>
+      </c>
+      <c r="D4403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2">
+      <c r="A4404" s="7">
+        <v>4402</v>
+      </c>
+      <c r="B4404" s="10">
+        <v>46042</v>
       </c>
     </row>
   </sheetData>
